--- a/yahoofinance/VGIT_yahoofin_historical_data.xlsx
+++ b/yahoofinance/VGIT_yahoofin_historical_data.xlsx
@@ -589,7 +589,7 @@
         <v>59.560001</v>
       </c>
       <c r="F6" t="n">
-        <v>58.261024</v>
+        <v>58.261032</v>
       </c>
       <c r="G6" t="n">
         <v>1875900</v>
@@ -614,7 +614,7 @@
         <v>59.380001</v>
       </c>
       <c r="F7" t="n">
-        <v>58.084953</v>
+        <v>58.084957</v>
       </c>
       <c r="G7" t="n">
         <v>1168400</v>
@@ -639,7 +639,7 @@
         <v>59.610001</v>
       </c>
       <c r="F8" t="n">
-        <v>58.309937</v>
+        <v>58.309944</v>
       </c>
       <c r="G8" t="n">
         <v>1086400</v>
@@ -689,7 +689,7 @@
         <v>59.77</v>
       </c>
       <c r="F10" t="n">
-        <v>58.46645</v>
+        <v>58.466442</v>
       </c>
       <c r="G10" t="n">
         <v>1017900</v>
@@ -714,7 +714,7 @@
         <v>59.73</v>
       </c>
       <c r="F11" t="n">
-        <v>58.427322</v>
+        <v>58.427319</v>
       </c>
       <c r="G11" t="n">
         <v>1981500</v>
@@ -739,7 +739,7 @@
         <v>60.259998</v>
       </c>
       <c r="F12" t="n">
-        <v>58.945759</v>
+        <v>58.945755</v>
       </c>
       <c r="G12" t="n">
         <v>1705600</v>
@@ -764,7 +764,7 @@
         <v>60.150002</v>
       </c>
       <c r="F13" t="n">
-        <v>58.838158</v>
+        <v>58.838161</v>
       </c>
       <c r="G13" t="n">
         <v>1855300</v>
@@ -789,7 +789,7 @@
         <v>59.900002</v>
       </c>
       <c r="F14" t="n">
-        <v>58.593609</v>
+        <v>58.593613</v>
       </c>
       <c r="G14" t="n">
         <v>1446500</v>
@@ -814,7 +814,7 @@
         <v>59.75</v>
       </c>
       <c r="F15" t="n">
-        <v>58.446884</v>
+        <v>58.44688</v>
       </c>
       <c r="G15" t="n">
         <v>1982800</v>
@@ -839,7 +839,7 @@
         <v>59.939999</v>
       </c>
       <c r="F16" t="n">
-        <v>58.632736</v>
+        <v>58.632744</v>
       </c>
       <c r="G16" t="n">
         <v>961400</v>
@@ -889,7 +889,7 @@
         <v>59.860001</v>
       </c>
       <c r="F18" t="n">
-        <v>58.554485</v>
+        <v>58.554482</v>
       </c>
       <c r="G18" t="n">
         <v>4187800</v>
@@ -914,7 +914,7 @@
         <v>59.77</v>
       </c>
       <c r="F19" t="n">
-        <v>58.46645</v>
+        <v>58.466442</v>
       </c>
       <c r="G19" t="n">
         <v>1254300</v>
@@ -964,7 +964,7 @@
         <v>59.869999</v>
       </c>
       <c r="F21" t="n">
-        <v>58.564255</v>
+        <v>58.564266</v>
       </c>
       <c r="G21" t="n">
         <v>1507600</v>
@@ -989,7 +989,7 @@
         <v>60.07</v>
       </c>
       <c r="F22" t="n">
-        <v>58.87989</v>
+        <v>58.879887</v>
       </c>
       <c r="G22" t="n">
         <v>2358600</v>
@@ -1014,7 +1014,7 @@
         <v>60.080002</v>
       </c>
       <c r="F23" t="n">
-        <v>58.889694</v>
+        <v>58.88969</v>
       </c>
       <c r="G23" t="n">
         <v>4014500</v>
@@ -1039,7 +1039,7 @@
         <v>59.580002</v>
       </c>
       <c r="F24" t="n">
-        <v>58.399597</v>
+        <v>58.399593</v>
       </c>
       <c r="G24" t="n">
         <v>1786100</v>
@@ -1064,7 +1064,7 @@
         <v>59.150002</v>
       </c>
       <c r="F25" t="n">
-        <v>57.978119</v>
+        <v>57.978115</v>
       </c>
       <c r="G25" t="n">
         <v>1537500</v>
@@ -1089,7 +1089,7 @@
         <v>59.09</v>
       </c>
       <c r="F26" t="n">
-        <v>57.919308</v>
+        <v>57.9193</v>
       </c>
       <c r="G26" t="n">
         <v>1974200</v>
@@ -1214,7 +1214,7 @@
         <v>58.669998</v>
       </c>
       <c r="F31" t="n">
-        <v>57.507618</v>
+        <v>57.507626</v>
       </c>
       <c r="G31" t="n">
         <v>6311300</v>
@@ -1239,7 +1239,7 @@
         <v>58.59</v>
       </c>
       <c r="F32" t="n">
-        <v>57.429203</v>
+        <v>57.429207</v>
       </c>
       <c r="G32" t="n">
         <v>4077900</v>
@@ -1264,7 +1264,7 @@
         <v>58.5</v>
       </c>
       <c r="F33" t="n">
-        <v>57.340988</v>
+        <v>57.340992</v>
       </c>
       <c r="G33" t="n">
         <v>6726800</v>
@@ -1314,7 +1314,7 @@
         <v>58.200001</v>
       </c>
       <c r="F35" t="n">
-        <v>57.046936</v>
+        <v>57.04694</v>
       </c>
       <c r="G35" t="n">
         <v>3648300</v>
@@ -1339,7 +1339,7 @@
         <v>58.27</v>
       </c>
       <c r="F36" t="n">
-        <v>57.115559</v>
+        <v>57.115551</v>
       </c>
       <c r="G36" t="n">
         <v>3129100</v>
@@ -1389,7 +1389,7 @@
         <v>58.119999</v>
       </c>
       <c r="F38" t="n">
-        <v>56.968517</v>
+        <v>56.968525</v>
       </c>
       <c r="G38" t="n">
         <v>2237400</v>
@@ -1414,7 +1414,7 @@
         <v>58.25</v>
       </c>
       <c r="F39" t="n">
-        <v>57.095943</v>
+        <v>57.095951</v>
       </c>
       <c r="G39" t="n">
         <v>3802200</v>
@@ -1439,7 +1439,7 @@
         <v>58.290001</v>
       </c>
       <c r="F40" t="n">
-        <v>57.135147</v>
+        <v>57.135151</v>
       </c>
       <c r="G40" t="n">
         <v>1913400</v>
@@ -1489,7 +1489,7 @@
         <v>57.720001</v>
       </c>
       <c r="F42" t="n">
-        <v>56.688286</v>
+        <v>56.68829</v>
       </c>
       <c r="G42" t="n">
         <v>1894100</v>
@@ -1539,7 +1539,7 @@
         <v>57.91</v>
       </c>
       <c r="F44" t="n">
-        <v>56.874893</v>
+        <v>56.874889</v>
       </c>
       <c r="G44" t="n">
         <v>1766200</v>
@@ -1589,7 +1589,7 @@
         <v>57.779999</v>
       </c>
       <c r="F46" t="n">
-        <v>56.747211</v>
+        <v>56.747208</v>
       </c>
       <c r="G46" t="n">
         <v>2439500</v>
@@ -1614,7 +1614,7 @@
         <v>58.139999</v>
       </c>
       <c r="F47" t="n">
-        <v>57.10078</v>
+        <v>57.100777</v>
       </c>
       <c r="G47" t="n">
         <v>1569400</v>
@@ -1639,7 +1639,7 @@
         <v>58.889999</v>
       </c>
       <c r="F48" t="n">
-        <v>57.837376</v>
+        <v>57.837372</v>
       </c>
       <c r="G48" t="n">
         <v>2527000</v>
@@ -1664,7 +1664,7 @@
         <v>59.599998</v>
       </c>
       <c r="F49" t="n">
-        <v>58.534683</v>
+        <v>58.534687</v>
       </c>
       <c r="G49" t="n">
         <v>5723900</v>
@@ -1689,7 +1689,7 @@
         <v>59.189999</v>
       </c>
       <c r="F50" t="n">
-        <v>58.132004</v>
+        <v>58.132011</v>
       </c>
       <c r="G50" t="n">
         <v>6438300</v>
@@ -1714,7 +1714,7 @@
         <v>59.91</v>
       </c>
       <c r="F51" t="n">
-        <v>58.839142</v>
+        <v>58.839138</v>
       </c>
       <c r="G51" t="n">
         <v>7294300</v>
@@ -1789,7 +1789,7 @@
         <v>59.830002</v>
       </c>
       <c r="F54" t="n">
-        <v>58.760571</v>
+        <v>58.760578</v>
       </c>
       <c r="G54" t="n">
         <v>2867200</v>
@@ -1839,7 +1839,7 @@
         <v>60.029999</v>
       </c>
       <c r="F56" t="n">
-        <v>58.956997</v>
+        <v>58.956993</v>
       </c>
       <c r="G56" t="n">
         <v>5451700</v>
@@ -1864,7 +1864,7 @@
         <v>60.389999</v>
       </c>
       <c r="F57" t="n">
-        <v>59.310562</v>
+        <v>59.310558</v>
       </c>
       <c r="G57" t="n">
         <v>3073900</v>
@@ -1889,7 +1889,7 @@
         <v>60.369999</v>
       </c>
       <c r="F58" t="n">
-        <v>59.290913</v>
+        <v>59.29092</v>
       </c>
       <c r="G58" t="n">
         <v>3706100</v>
@@ -1939,7 +1939,7 @@
         <v>59.720001</v>
       </c>
       <c r="F60" t="n">
-        <v>58.652534</v>
+        <v>58.652542</v>
       </c>
       <c r="G60" t="n">
         <v>1653500</v>
@@ -1964,7 +1964,7 @@
         <v>59.639999</v>
       </c>
       <c r="F61" t="n">
-        <v>58.573963</v>
+        <v>58.573975</v>
       </c>
       <c r="G61" t="n">
         <v>2577100</v>
@@ -1989,7 +1989,7 @@
         <v>59.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>58.642719</v>
+        <v>58.642715</v>
       </c>
       <c r="G62" t="n">
         <v>1227200</v>
@@ -2014,7 +2014,7 @@
         <v>59.959999</v>
       </c>
       <c r="F63" t="n">
-        <v>58.888248</v>
+        <v>58.888245</v>
       </c>
       <c r="G63" t="n">
         <v>1964300</v>
@@ -2039,7 +2039,7 @@
         <v>60.049999</v>
       </c>
       <c r="F64" t="n">
-        <v>59.099842</v>
+        <v>59.099846</v>
       </c>
       <c r="G64" t="n">
         <v>1904500</v>
@@ -2089,7 +2089,7 @@
         <v>60.52</v>
       </c>
       <c r="F66" t="n">
-        <v>59.562408</v>
+        <v>59.562412</v>
       </c>
       <c r="G66" t="n">
         <v>1736500</v>
@@ -2114,7 +2114,7 @@
         <v>60.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>59.57225</v>
+        <v>59.572247</v>
       </c>
       <c r="G67" t="n">
         <v>1474100</v>
@@ -2139,7 +2139,7 @@
         <v>60.080002</v>
       </c>
       <c r="F68" t="n">
-        <v>59.129375</v>
+        <v>59.129372</v>
       </c>
       <c r="G68" t="n">
         <v>2089000</v>
@@ -2164,7 +2164,7 @@
         <v>60.049999</v>
       </c>
       <c r="F69" t="n">
-        <v>59.099842</v>
+        <v>59.099846</v>
       </c>
       <c r="G69" t="n">
         <v>1461300</v>
@@ -2214,7 +2214,7 @@
         <v>60.130001</v>
       </c>
       <c r="F71" t="n">
-        <v>59.178581</v>
+        <v>59.178589</v>
       </c>
       <c r="G71" t="n">
         <v>1616400</v>
@@ -2239,7 +2239,7 @@
         <v>59.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>58.942379</v>
+        <v>58.942375</v>
       </c>
       <c r="G72" t="n">
         <v>2046000</v>
@@ -2289,7 +2289,7 @@
         <v>59.66</v>
       </c>
       <c r="F74" t="n">
-        <v>58.716015</v>
+        <v>58.716019</v>
       </c>
       <c r="G74" t="n">
         <v>912600</v>
@@ -2364,7 +2364,7 @@
         <v>59.73</v>
       </c>
       <c r="F77" t="n">
-        <v>58.784908</v>
+        <v>58.784912</v>
       </c>
       <c r="G77" t="n">
         <v>861400</v>
@@ -2439,7 +2439,7 @@
         <v>60.279999</v>
       </c>
       <c r="F80" t="n">
-        <v>59.32621</v>
+        <v>59.326202</v>
       </c>
       <c r="G80" t="n">
         <v>1169600</v>
@@ -2489,7 +2489,7 @@
         <v>60.27</v>
       </c>
       <c r="F82" t="n">
-        <v>59.316372</v>
+        <v>59.316368</v>
       </c>
       <c r="G82" t="n">
         <v>2204000</v>
@@ -2514,7 +2514,7 @@
         <v>59.68</v>
       </c>
       <c r="F83" t="n">
-        <v>58.854836</v>
+        <v>58.854832</v>
       </c>
       <c r="G83" t="n">
         <v>1784900</v>
@@ -2639,7 +2639,7 @@
         <v>60.110001</v>
       </c>
       <c r="F88" t="n">
-        <v>59.278896</v>
+        <v>59.278889</v>
       </c>
       <c r="G88" t="n">
         <v>1617200</v>
@@ -2664,7 +2664,7 @@
         <v>60.060001</v>
       </c>
       <c r="F89" t="n">
-        <v>59.229584</v>
+        <v>59.229588</v>
       </c>
       <c r="G89" t="n">
         <v>2129600</v>
@@ -2689,7 +2689,7 @@
         <v>60.43</v>
       </c>
       <c r="F90" t="n">
-        <v>59.594467</v>
+        <v>59.594463</v>
       </c>
       <c r="G90" t="n">
         <v>2377200</v>
@@ -2714,7 +2714,7 @@
         <v>60.540001</v>
       </c>
       <c r="F91" t="n">
-        <v>59.702946</v>
+        <v>59.702942</v>
       </c>
       <c r="G91" t="n">
         <v>1439700</v>
@@ -2739,7 +2739,7 @@
         <v>60.27</v>
       </c>
       <c r="F92" t="n">
-        <v>59.436684</v>
+        <v>59.43668</v>
       </c>
       <c r="G92" t="n">
         <v>1975300</v>
@@ -2839,7 +2839,7 @@
         <v>59.610001</v>
       </c>
       <c r="F96" t="n">
-        <v>58.785809</v>
+        <v>58.785805</v>
       </c>
       <c r="G96" t="n">
         <v>2963000</v>
@@ -2889,7 +2889,7 @@
         <v>59.380001</v>
       </c>
       <c r="F98" t="n">
-        <v>58.558987</v>
+        <v>58.558983</v>
       </c>
       <c r="G98" t="n">
         <v>3127700</v>
@@ -2914,7 +2914,7 @@
         <v>59.439999</v>
       </c>
       <c r="F99" t="n">
-        <v>58.618156</v>
+        <v>58.618153</v>
       </c>
       <c r="G99" t="n">
         <v>1391900</v>
@@ -2939,7 +2939,7 @@
         <v>59.32</v>
       </c>
       <c r="F100" t="n">
-        <v>58.499813</v>
+        <v>58.499817</v>
       </c>
       <c r="G100" t="n">
         <v>1526500</v>
@@ -2964,7 +2964,7 @@
         <v>58.990002</v>
       </c>
       <c r="F101" t="n">
-        <v>58.174374</v>
+        <v>58.174385</v>
       </c>
       <c r="G101" t="n">
         <v>2161900</v>
@@ -2989,7 +2989,7 @@
         <v>58.98</v>
       </c>
       <c r="F102" t="n">
-        <v>58.164516</v>
+        <v>58.164513</v>
       </c>
       <c r="G102" t="n">
         <v>1375600</v>
@@ -3039,7 +3039,7 @@
         <v>59.509998</v>
       </c>
       <c r="F104" t="n">
-        <v>58.687183</v>
+        <v>58.687187</v>
       </c>
       <c r="G104" t="n">
         <v>2398000</v>
@@ -3064,7 +3064,7 @@
         <v>59.529999</v>
       </c>
       <c r="F105" t="n">
-        <v>58.834446</v>
+        <v>58.834442</v>
       </c>
       <c r="G105" t="n">
         <v>1343600</v>
@@ -3089,7 +3089,7 @@
         <v>59.139999</v>
       </c>
       <c r="F106" t="n">
-        <v>58.449001</v>
+        <v>58.449005</v>
       </c>
       <c r="G106" t="n">
         <v>1134700</v>
@@ -3114,7 +3114,7 @@
         <v>59.150002</v>
       </c>
       <c r="F107" t="n">
-        <v>58.458881</v>
+        <v>58.458889</v>
       </c>
       <c r="G107" t="n">
         <v>2423400</v>
@@ -3139,7 +3139,7 @@
         <v>59.139999</v>
       </c>
       <c r="F108" t="n">
-        <v>58.449001</v>
+        <v>58.449005</v>
       </c>
       <c r="G108" t="n">
         <v>1440700</v>
@@ -3189,7 +3189,7 @@
         <v>59.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>58.458881</v>
+        <v>58.458889</v>
       </c>
       <c r="G110" t="n">
         <v>1090300</v>
@@ -3214,7 +3214,7 @@
         <v>58.959999</v>
       </c>
       <c r="F111" t="n">
-        <v>58.271107</v>
+        <v>58.271103</v>
       </c>
       <c r="G111" t="n">
         <v>944900</v>
@@ -3239,7 +3239,7 @@
         <v>59.060001</v>
       </c>
       <c r="F112" t="n">
-        <v>58.369938</v>
+        <v>58.369934</v>
       </c>
       <c r="G112" t="n">
         <v>1118100</v>
@@ -3264,7 +3264,7 @@
         <v>58.75</v>
       </c>
       <c r="F113" t="n">
-        <v>58.06356</v>
+        <v>58.063557</v>
       </c>
       <c r="G113" t="n">
         <v>2160700</v>
@@ -3389,7 +3389,7 @@
         <v>59.009998</v>
       </c>
       <c r="F118" t="n">
-        <v>58.320518</v>
+        <v>58.320522</v>
       </c>
       <c r="G118" t="n">
         <v>2199300</v>
@@ -3414,7 +3414,7 @@
         <v>58.799999</v>
       </c>
       <c r="F119" t="n">
-        <v>58.112972</v>
+        <v>58.11298</v>
       </c>
       <c r="G119" t="n">
         <v>843600</v>
@@ -3489,7 +3489,7 @@
         <v>58.860001</v>
       </c>
       <c r="F122" t="n">
-        <v>58.172276</v>
+        <v>58.172272</v>
       </c>
       <c r="G122" t="n">
         <v>1470500</v>
@@ -3539,7 +3539,7 @@
         <v>58.610001</v>
       </c>
       <c r="F124" t="n">
-        <v>57.925198</v>
+        <v>57.925194</v>
       </c>
       <c r="G124" t="n">
         <v>1871400</v>
@@ -3614,7 +3614,7 @@
         <v>58.189999</v>
       </c>
       <c r="F127" t="n">
-        <v>57.635864</v>
+        <v>57.635868</v>
       </c>
       <c r="G127" t="n">
         <v>1926800</v>
@@ -3639,7 +3639,7 @@
         <v>57.869999</v>
       </c>
       <c r="F128" t="n">
-        <v>57.318916</v>
+        <v>57.318913</v>
       </c>
       <c r="G128" t="n">
         <v>3567600</v>
@@ -3664,7 +3664,7 @@
         <v>57.869999</v>
       </c>
       <c r="F129" t="n">
-        <v>57.318916</v>
+        <v>57.318913</v>
       </c>
       <c r="G129" t="n">
         <v>1276800</v>
@@ -3739,7 +3739,7 @@
         <v>58.630001</v>
       </c>
       <c r="F132" t="n">
-        <v>58.071682</v>
+        <v>58.071678</v>
       </c>
       <c r="G132" t="n">
         <v>1798500</v>
@@ -3789,7 +3789,7 @@
         <v>58.779999</v>
       </c>
       <c r="F134" t="n">
-        <v>58.220249</v>
+        <v>58.220245</v>
       </c>
       <c r="G134" t="n">
         <v>1014000</v>
@@ -3864,7 +3864,7 @@
         <v>59</v>
       </c>
       <c r="F137" t="n">
-        <v>58.438152</v>
+        <v>58.438156</v>
       </c>
       <c r="G137" t="n">
         <v>14745100</v>
@@ -3889,7 +3889,7 @@
         <v>58.689999</v>
       </c>
       <c r="F138" t="n">
-        <v>58.131104</v>
+        <v>58.131107</v>
       </c>
       <c r="G138" t="n">
         <v>20730600</v>
@@ -3914,7 +3914,7 @@
         <v>58.700001</v>
       </c>
       <c r="F139" t="n">
-        <v>58.141014</v>
+        <v>58.14101</v>
       </c>
       <c r="G139" t="n">
         <v>2161800</v>
@@ -3939,7 +3939,7 @@
         <v>58.580002</v>
       </c>
       <c r="F140" t="n">
-        <v>58.022152</v>
+        <v>58.022156</v>
       </c>
       <c r="G140" t="n">
         <v>1365800</v>
@@ -4064,7 +4064,7 @@
         <v>58.48</v>
       </c>
       <c r="F145" t="n">
-        <v>57.923103</v>
+        <v>57.923107</v>
       </c>
       <c r="G145" t="n">
         <v>1621200</v>
@@ -5883,16 +5883,16 @@
         <v>57.169998</v>
       </c>
       <c r="D218" t="n">
-        <v>57.055</v>
+        <v>56.98</v>
       </c>
       <c r="E218" t="n">
-        <v>57.060001</v>
+        <v>57.009998</v>
       </c>
       <c r="F218" t="n">
-        <v>57.060001</v>
+        <v>57.009998</v>
       </c>
       <c r="G218" t="n">
-        <v>669358</v>
+        <v>1966300</v>
       </c>
     </row>
   </sheetData>

--- a/yahoofinance/VGIT_yahoofin_historical_data.xlsx
+++ b/yahoofinance/VGIT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,7 +539,7 @@
         <v>58.880001</v>
       </c>
       <c r="F4" t="n">
-        <v>57.59586</v>
+        <v>57.595856</v>
       </c>
       <c r="G4" t="n">
         <v>1364100</v>
@@ -564,7 +564,7 @@
         <v>59.450001</v>
       </c>
       <c r="F5" t="n">
-        <v>58.153427</v>
+        <v>58.153431</v>
       </c>
       <c r="G5" t="n">
         <v>1450600</v>
@@ -589,7 +589,7 @@
         <v>59.560001</v>
       </c>
       <c r="F6" t="n">
-        <v>58.261032</v>
+        <v>58.261024</v>
       </c>
       <c r="G6" t="n">
         <v>1875900</v>
@@ -614,7 +614,7 @@
         <v>59.380001</v>
       </c>
       <c r="F7" t="n">
-        <v>58.084957</v>
+        <v>58.084949</v>
       </c>
       <c r="G7" t="n">
         <v>1168400</v>
@@ -639,7 +639,7 @@
         <v>59.610001</v>
       </c>
       <c r="F8" t="n">
-        <v>58.309944</v>
+        <v>58.309929</v>
       </c>
       <c r="G8" t="n">
         <v>1086400</v>
@@ -689,7 +689,7 @@
         <v>59.77</v>
       </c>
       <c r="F10" t="n">
-        <v>58.466442</v>
+        <v>58.46645</v>
       </c>
       <c r="G10" t="n">
         <v>1017900</v>
@@ -739,7 +739,7 @@
         <v>60.259998</v>
       </c>
       <c r="F12" t="n">
-        <v>58.945755</v>
+        <v>58.945759</v>
       </c>
       <c r="G12" t="n">
         <v>1705600</v>
@@ -764,7 +764,7 @@
         <v>60.150002</v>
       </c>
       <c r="F13" t="n">
-        <v>58.838161</v>
+        <v>58.838158</v>
       </c>
       <c r="G13" t="n">
         <v>1855300</v>
@@ -789,7 +789,7 @@
         <v>59.900002</v>
       </c>
       <c r="F14" t="n">
-        <v>58.593613</v>
+        <v>58.593609</v>
       </c>
       <c r="G14" t="n">
         <v>1446500</v>
@@ -814,7 +814,7 @@
         <v>59.75</v>
       </c>
       <c r="F15" t="n">
-        <v>58.44688</v>
+        <v>58.446884</v>
       </c>
       <c r="G15" t="n">
         <v>1982800</v>
@@ -839,7 +839,7 @@
         <v>59.939999</v>
       </c>
       <c r="F16" t="n">
-        <v>58.632744</v>
+        <v>58.63274</v>
       </c>
       <c r="G16" t="n">
         <v>961400</v>
@@ -914,7 +914,7 @@
         <v>59.77</v>
       </c>
       <c r="F19" t="n">
-        <v>58.466442</v>
+        <v>58.46645</v>
       </c>
       <c r="G19" t="n">
         <v>1254300</v>
@@ -939,7 +939,7 @@
         <v>59.639999</v>
       </c>
       <c r="F20" t="n">
-        <v>58.339283</v>
+        <v>58.339279</v>
       </c>
       <c r="G20" t="n">
         <v>1551700</v>
@@ -964,7 +964,7 @@
         <v>59.869999</v>
       </c>
       <c r="F21" t="n">
-        <v>58.564266</v>
+        <v>58.564259</v>
       </c>
       <c r="G21" t="n">
         <v>1507600</v>
@@ -989,7 +989,7 @@
         <v>60.07</v>
       </c>
       <c r="F22" t="n">
-        <v>58.879887</v>
+        <v>58.87989</v>
       </c>
       <c r="G22" t="n">
         <v>2358600</v>
@@ -1014,7 +1014,7 @@
         <v>60.080002</v>
       </c>
       <c r="F23" t="n">
-        <v>58.88969</v>
+        <v>58.889687</v>
       </c>
       <c r="G23" t="n">
         <v>4014500</v>
@@ -1039,7 +1039,7 @@
         <v>59.580002</v>
       </c>
       <c r="F24" t="n">
-        <v>58.399593</v>
+        <v>58.399597</v>
       </c>
       <c r="G24" t="n">
         <v>1786100</v>
@@ -1089,7 +1089,7 @@
         <v>59.09</v>
       </c>
       <c r="F26" t="n">
-        <v>57.9193</v>
+        <v>57.919296</v>
       </c>
       <c r="G26" t="n">
         <v>1974200</v>
@@ -1139,7 +1139,7 @@
         <v>59.040001</v>
       </c>
       <c r="F28" t="n">
-        <v>57.870296</v>
+        <v>57.870289</v>
       </c>
       <c r="G28" t="n">
         <v>2590000</v>
@@ -1164,7 +1164,7 @@
         <v>58.860001</v>
       </c>
       <c r="F29" t="n">
-        <v>57.693859</v>
+        <v>57.693855</v>
       </c>
       <c r="G29" t="n">
         <v>1898200</v>
@@ -1189,7 +1189,7 @@
         <v>58.93</v>
       </c>
       <c r="F30" t="n">
-        <v>57.762474</v>
+        <v>57.76247</v>
       </c>
       <c r="G30" t="n">
         <v>2631100</v>
@@ -1264,7 +1264,7 @@
         <v>58.5</v>
       </c>
       <c r="F33" t="n">
-        <v>57.340992</v>
+        <v>57.340996</v>
       </c>
       <c r="G33" t="n">
         <v>6726800</v>
@@ -1314,7 +1314,7 @@
         <v>58.200001</v>
       </c>
       <c r="F35" t="n">
-        <v>57.04694</v>
+        <v>57.046936</v>
       </c>
       <c r="G35" t="n">
         <v>3648300</v>
@@ -1339,7 +1339,7 @@
         <v>58.27</v>
       </c>
       <c r="F36" t="n">
-        <v>57.115551</v>
+        <v>57.115543</v>
       </c>
       <c r="G36" t="n">
         <v>3129100</v>
@@ -1364,7 +1364,7 @@
         <v>58.400002</v>
       </c>
       <c r="F37" t="n">
-        <v>57.242973</v>
+        <v>57.24297</v>
       </c>
       <c r="G37" t="n">
         <v>2451200</v>
@@ -1414,7 +1414,7 @@
         <v>58.25</v>
       </c>
       <c r="F39" t="n">
-        <v>57.095951</v>
+        <v>57.095943</v>
       </c>
       <c r="G39" t="n">
         <v>3802200</v>
@@ -1439,7 +1439,7 @@
         <v>58.290001</v>
       </c>
       <c r="F40" t="n">
-        <v>57.135151</v>
+        <v>57.135155</v>
       </c>
       <c r="G40" t="n">
         <v>1913400</v>
@@ -1464,7 +1464,7 @@
         <v>57.860001</v>
       </c>
       <c r="F41" t="n">
-        <v>56.825783</v>
+        <v>56.825787</v>
       </c>
       <c r="G41" t="n">
         <v>2232800</v>
@@ -1489,7 +1489,7 @@
         <v>57.720001</v>
       </c>
       <c r="F42" t="n">
-        <v>56.68829</v>
+        <v>56.688286</v>
       </c>
       <c r="G42" t="n">
         <v>1894100</v>
@@ -1589,7 +1589,7 @@
         <v>57.779999</v>
       </c>
       <c r="F46" t="n">
-        <v>56.747208</v>
+        <v>56.747211</v>
       </c>
       <c r="G46" t="n">
         <v>2439500</v>
@@ -1614,7 +1614,7 @@
         <v>58.139999</v>
       </c>
       <c r="F47" t="n">
-        <v>57.100777</v>
+        <v>57.10078</v>
       </c>
       <c r="G47" t="n">
         <v>1569400</v>
@@ -1639,7 +1639,7 @@
         <v>58.889999</v>
       </c>
       <c r="F48" t="n">
-        <v>57.837372</v>
+        <v>57.837368</v>
       </c>
       <c r="G48" t="n">
         <v>2527000</v>
@@ -1664,7 +1664,7 @@
         <v>59.599998</v>
       </c>
       <c r="F49" t="n">
-        <v>58.534687</v>
+        <v>58.534683</v>
       </c>
       <c r="G49" t="n">
         <v>5723900</v>
@@ -1714,7 +1714,7 @@
         <v>59.91</v>
       </c>
       <c r="F51" t="n">
-        <v>58.839138</v>
+        <v>58.839146</v>
       </c>
       <c r="G51" t="n">
         <v>7294300</v>
@@ -1739,7 +1739,7 @@
         <v>59.459999</v>
       </c>
       <c r="F52" t="n">
-        <v>58.397186</v>
+        <v>58.397182</v>
       </c>
       <c r="G52" t="n">
         <v>6014900</v>
@@ -1789,7 +1789,7 @@
         <v>59.830002</v>
       </c>
       <c r="F54" t="n">
-        <v>58.760578</v>
+        <v>58.760574</v>
       </c>
       <c r="G54" t="n">
         <v>2867200</v>
@@ -1839,7 +1839,7 @@
         <v>60.029999</v>
       </c>
       <c r="F56" t="n">
-        <v>58.956993</v>
+        <v>58.956989</v>
       </c>
       <c r="G56" t="n">
         <v>5451700</v>
@@ -1914,7 +1914,7 @@
         <v>59.810001</v>
       </c>
       <c r="F59" t="n">
-        <v>58.740929</v>
+        <v>58.740925</v>
       </c>
       <c r="G59" t="n">
         <v>1804900</v>
@@ -1939,7 +1939,7 @@
         <v>59.720001</v>
       </c>
       <c r="F60" t="n">
-        <v>58.652542</v>
+        <v>58.652538</v>
       </c>
       <c r="G60" t="n">
         <v>1653500</v>
@@ -1964,7 +1964,7 @@
         <v>59.639999</v>
       </c>
       <c r="F61" t="n">
-        <v>58.573975</v>
+        <v>58.573967</v>
       </c>
       <c r="G61" t="n">
         <v>2577100</v>
@@ -2014,7 +2014,7 @@
         <v>59.959999</v>
       </c>
       <c r="F63" t="n">
-        <v>58.888245</v>
+        <v>58.888248</v>
       </c>
       <c r="G63" t="n">
         <v>1964300</v>
@@ -2064,7 +2064,7 @@
         <v>60.369999</v>
       </c>
       <c r="F65" t="n">
-        <v>59.414776</v>
+        <v>59.414783</v>
       </c>
       <c r="G65" t="n">
         <v>1856600</v>
@@ -2114,7 +2114,7 @@
         <v>60.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>59.572247</v>
+        <v>59.57225</v>
       </c>
       <c r="G67" t="n">
         <v>1474100</v>
@@ -2139,7 +2139,7 @@
         <v>60.080002</v>
       </c>
       <c r="F68" t="n">
-        <v>59.129372</v>
+        <v>59.129375</v>
       </c>
       <c r="G68" t="n">
         <v>2089000</v>
@@ -2214,7 +2214,7 @@
         <v>60.130001</v>
       </c>
       <c r="F71" t="n">
-        <v>59.178589</v>
+        <v>59.178581</v>
       </c>
       <c r="G71" t="n">
         <v>1616400</v>
@@ -2264,7 +2264,7 @@
         <v>59.599998</v>
       </c>
       <c r="F73" t="n">
-        <v>58.656967</v>
+        <v>58.656963</v>
       </c>
       <c r="G73" t="n">
         <v>871200</v>
@@ -2314,7 +2314,7 @@
         <v>59.560001</v>
       </c>
       <c r="F75" t="n">
-        <v>58.617599</v>
+        <v>58.617596</v>
       </c>
       <c r="G75" t="n">
         <v>940900</v>
@@ -2364,7 +2364,7 @@
         <v>59.73</v>
       </c>
       <c r="F77" t="n">
-        <v>58.784912</v>
+        <v>58.784908</v>
       </c>
       <c r="G77" t="n">
         <v>861400</v>
@@ -2389,7 +2389,7 @@
         <v>59.939999</v>
       </c>
       <c r="F78" t="n">
-        <v>58.991585</v>
+        <v>58.991589</v>
       </c>
       <c r="G78" t="n">
         <v>1001700</v>
@@ -2414,7 +2414,7 @@
         <v>60.439999</v>
       </c>
       <c r="F79" t="n">
-        <v>59.483677</v>
+        <v>59.483681</v>
       </c>
       <c r="G79" t="n">
         <v>1242700</v>
@@ -2439,7 +2439,7 @@
         <v>60.279999</v>
       </c>
       <c r="F80" t="n">
-        <v>59.326202</v>
+        <v>59.326206</v>
       </c>
       <c r="G80" t="n">
         <v>1169600</v>
@@ -2464,7 +2464,7 @@
         <v>59.939999</v>
       </c>
       <c r="F81" t="n">
-        <v>58.991585</v>
+        <v>58.991589</v>
       </c>
       <c r="G81" t="n">
         <v>2827300</v>
@@ -2489,7 +2489,7 @@
         <v>60.27</v>
       </c>
       <c r="F82" t="n">
-        <v>59.316368</v>
+        <v>59.316364</v>
       </c>
       <c r="G82" t="n">
         <v>2204000</v>
@@ -2514,7 +2514,7 @@
         <v>59.68</v>
       </c>
       <c r="F83" t="n">
-        <v>58.854832</v>
+        <v>58.854839</v>
       </c>
       <c r="G83" t="n">
         <v>1784900</v>
@@ -2639,7 +2639,7 @@
         <v>60.110001</v>
       </c>
       <c r="F88" t="n">
-        <v>59.278889</v>
+        <v>59.278893</v>
       </c>
       <c r="G88" t="n">
         <v>1617200</v>
@@ -2664,7 +2664,7 @@
         <v>60.060001</v>
       </c>
       <c r="F89" t="n">
-        <v>59.229588</v>
+        <v>59.229584</v>
       </c>
       <c r="G89" t="n">
         <v>2129600</v>
@@ -2714,7 +2714,7 @@
         <v>60.540001</v>
       </c>
       <c r="F91" t="n">
-        <v>59.702942</v>
+        <v>59.70295</v>
       </c>
       <c r="G91" t="n">
         <v>1439700</v>
@@ -2764,7 +2764,7 @@
         <v>60.220001</v>
       </c>
       <c r="F93" t="n">
-        <v>59.387371</v>
+        <v>59.387375</v>
       </c>
       <c r="G93" t="n">
         <v>2351500</v>
@@ -2839,7 +2839,7 @@
         <v>59.610001</v>
       </c>
       <c r="F96" t="n">
-        <v>58.785805</v>
+        <v>58.785809</v>
       </c>
       <c r="G96" t="n">
         <v>2963000</v>
@@ -2889,7 +2889,7 @@
         <v>59.380001</v>
       </c>
       <c r="F98" t="n">
-        <v>58.558983</v>
+        <v>58.558987</v>
       </c>
       <c r="G98" t="n">
         <v>3127700</v>
@@ -2939,7 +2939,7 @@
         <v>59.32</v>
       </c>
       <c r="F100" t="n">
-        <v>58.499817</v>
+        <v>58.499813</v>
       </c>
       <c r="G100" t="n">
         <v>1526500</v>
@@ -2964,7 +2964,7 @@
         <v>58.990002</v>
       </c>
       <c r="F101" t="n">
-        <v>58.174385</v>
+        <v>58.174377</v>
       </c>
       <c r="G101" t="n">
         <v>2161900</v>
@@ -3039,7 +3039,7 @@
         <v>59.509998</v>
       </c>
       <c r="F104" t="n">
-        <v>58.687187</v>
+        <v>58.687183</v>
       </c>
       <c r="G104" t="n">
         <v>2398000</v>
@@ -3064,7 +3064,7 @@
         <v>59.529999</v>
       </c>
       <c r="F105" t="n">
-        <v>58.834442</v>
+        <v>58.834446</v>
       </c>
       <c r="G105" t="n">
         <v>1343600</v>
@@ -3089,7 +3089,7 @@
         <v>59.139999</v>
       </c>
       <c r="F106" t="n">
-        <v>58.449005</v>
+        <v>58.449001</v>
       </c>
       <c r="G106" t="n">
         <v>1134700</v>
@@ -3114,7 +3114,7 @@
         <v>59.150002</v>
       </c>
       <c r="F107" t="n">
-        <v>58.458889</v>
+        <v>58.458885</v>
       </c>
       <c r="G107" t="n">
         <v>2423400</v>
@@ -3139,7 +3139,7 @@
         <v>59.139999</v>
       </c>
       <c r="F108" t="n">
-        <v>58.449005</v>
+        <v>58.449001</v>
       </c>
       <c r="G108" t="n">
         <v>1440700</v>
@@ -3189,7 +3189,7 @@
         <v>59.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>58.458889</v>
+        <v>58.458885</v>
       </c>
       <c r="G110" t="n">
         <v>1090300</v>
@@ -3239,7 +3239,7 @@
         <v>59.060001</v>
       </c>
       <c r="F112" t="n">
-        <v>58.369934</v>
+        <v>58.369938</v>
       </c>
       <c r="G112" t="n">
         <v>1118100</v>
@@ -3264,7 +3264,7 @@
         <v>58.75</v>
       </c>
       <c r="F113" t="n">
-        <v>58.063557</v>
+        <v>58.06356</v>
       </c>
       <c r="G113" t="n">
         <v>2160700</v>
@@ -3364,7 +3364,7 @@
         <v>58.98</v>
       </c>
       <c r="F117" t="n">
-        <v>58.290874</v>
+        <v>58.290871</v>
       </c>
       <c r="G117" t="n">
         <v>2541100</v>
@@ -3414,7 +3414,7 @@
         <v>58.799999</v>
       </c>
       <c r="F119" t="n">
-        <v>58.11298</v>
+        <v>58.112976</v>
       </c>
       <c r="G119" t="n">
         <v>843600</v>
@@ -3464,7 +3464,7 @@
         <v>59.040001</v>
       </c>
       <c r="F121" t="n">
-        <v>58.35017</v>
+        <v>58.350174</v>
       </c>
       <c r="G121" t="n">
         <v>1052700</v>
@@ -3514,7 +3514,7 @@
         <v>59.040001</v>
       </c>
       <c r="F123" t="n">
-        <v>58.35017</v>
+        <v>58.350174</v>
       </c>
       <c r="G123" t="n">
         <v>1860800</v>
@@ -3539,7 +3539,7 @@
         <v>58.610001</v>
       </c>
       <c r="F124" t="n">
-        <v>57.925194</v>
+        <v>57.925201</v>
       </c>
       <c r="G124" t="n">
         <v>1871400</v>
@@ -3564,7 +3564,7 @@
         <v>58.66</v>
       </c>
       <c r="F125" t="n">
-        <v>57.974613</v>
+        <v>57.974609</v>
       </c>
       <c r="G125" t="n">
         <v>1798400</v>
@@ -3739,7 +3739,7 @@
         <v>58.630001</v>
       </c>
       <c r="F132" t="n">
-        <v>58.071678</v>
+        <v>58.071682</v>
       </c>
       <c r="G132" t="n">
         <v>1798500</v>
@@ -3814,7 +3814,7 @@
         <v>58.860001</v>
       </c>
       <c r="F135" t="n">
-        <v>58.299484</v>
+        <v>58.299488</v>
       </c>
       <c r="G135" t="n">
         <v>893800</v>
@@ -3839,7 +3839,7 @@
         <v>58.889999</v>
       </c>
       <c r="F136" t="n">
-        <v>58.329201</v>
+        <v>58.329197</v>
       </c>
       <c r="G136" t="n">
         <v>1395400</v>
@@ -3889,7 +3889,7 @@
         <v>58.689999</v>
       </c>
       <c r="F138" t="n">
-        <v>58.131107</v>
+        <v>58.131104</v>
       </c>
       <c r="G138" t="n">
         <v>20730600</v>
@@ -3914,7 +3914,7 @@
         <v>58.700001</v>
       </c>
       <c r="F139" t="n">
-        <v>58.14101</v>
+        <v>58.141014</v>
       </c>
       <c r="G139" t="n">
         <v>2161800</v>
@@ -3989,7 +3989,7 @@
         <v>58.66</v>
       </c>
       <c r="F142" t="n">
-        <v>58.101395</v>
+        <v>58.101391</v>
       </c>
       <c r="G142" t="n">
         <v>1970900</v>
@@ -4064,7 +4064,7 @@
         <v>58.48</v>
       </c>
       <c r="F145" t="n">
-        <v>57.923107</v>
+        <v>57.923103</v>
       </c>
       <c r="G145" t="n">
         <v>1621200</v>
@@ -4139,7 +4139,7 @@
         <v>57.900002</v>
       </c>
       <c r="F148" t="n">
-        <v>57.47443</v>
+        <v>57.474434</v>
       </c>
       <c r="G148" t="n">
         <v>2141000</v>
@@ -4164,7 +4164,7 @@
         <v>58.34</v>
       </c>
       <c r="F149" t="n">
-        <v>57.911194</v>
+        <v>57.911198</v>
       </c>
       <c r="G149" t="n">
         <v>3147800</v>
@@ -4264,7 +4264,7 @@
         <v>58.169998</v>
       </c>
       <c r="F153" t="n">
-        <v>57.742443</v>
+        <v>57.742447</v>
       </c>
       <c r="G153" t="n">
         <v>2549000</v>
@@ -4314,7 +4314,7 @@
         <v>57.82</v>
       </c>
       <c r="F155" t="n">
-        <v>57.395016</v>
+        <v>57.39502</v>
       </c>
       <c r="G155" t="n">
         <v>1208000</v>
@@ -4339,7 +4339,7 @@
         <v>57.790001</v>
       </c>
       <c r="F156" t="n">
-        <v>57.365238</v>
+        <v>57.365242</v>
       </c>
       <c r="G156" t="n">
         <v>1416800</v>
@@ -4364,7 +4364,7 @@
         <v>57.66</v>
       </c>
       <c r="F157" t="n">
-        <v>57.236195</v>
+        <v>57.236191</v>
       </c>
       <c r="G157" t="n">
         <v>5579500</v>
@@ -4389,7 +4389,7 @@
         <v>57.66</v>
       </c>
       <c r="F158" t="n">
-        <v>57.236195</v>
+        <v>57.236191</v>
       </c>
       <c r="G158" t="n">
         <v>2072100</v>
@@ -4489,7 +4489,7 @@
         <v>57.900002</v>
       </c>
       <c r="F162" t="n">
-        <v>57.47443</v>
+        <v>57.474434</v>
       </c>
       <c r="G162" t="n">
         <v>2293100</v>
@@ -4564,7 +4564,7 @@
         <v>57.810001</v>
       </c>
       <c r="F165" t="n">
-        <v>57.38509</v>
+        <v>57.385094</v>
       </c>
       <c r="G165" t="n">
         <v>1264800</v>
@@ -5893,6 +5893,281 @@
       </c>
       <c r="G218" t="n">
         <v>1966300</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>56.880001</v>
+      </c>
+      <c r="C219" t="n">
+        <v>57.040001</v>
+      </c>
+      <c r="D219" t="n">
+        <v>56.830002</v>
+      </c>
+      <c r="E219" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="F219" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2802800</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>57.619999</v>
+      </c>
+      <c r="C220" t="n">
+        <v>57.700001</v>
+      </c>
+      <c r="D220" t="n">
+        <v>57.549999</v>
+      </c>
+      <c r="E220" t="n">
+        <v>57.650002</v>
+      </c>
+      <c r="F220" t="n">
+        <v>57.650002</v>
+      </c>
+      <c r="G220" t="n">
+        <v>3780300</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>57.459999</v>
+      </c>
+      <c r="C221" t="n">
+        <v>57.470001</v>
+      </c>
+      <c r="D221" t="n">
+        <v>57.310001</v>
+      </c>
+      <c r="E221" t="n">
+        <v>57.349998</v>
+      </c>
+      <c r="F221" t="n">
+        <v>57.349998</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2171400</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>57.599998</v>
+      </c>
+      <c r="C222" t="n">
+        <v>57.720001</v>
+      </c>
+      <c r="D222" t="n">
+        <v>57.59</v>
+      </c>
+      <c r="E222" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="F222" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="G222" t="n">
+        <v>5649600</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="C223" t="n">
+        <v>57.68</v>
+      </c>
+      <c r="D223" t="n">
+        <v>57.560001</v>
+      </c>
+      <c r="E223" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="F223" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2251000</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>57.580002</v>
+      </c>
+      <c r="C224" t="n">
+        <v>57.709999</v>
+      </c>
+      <c r="D224" t="n">
+        <v>57.549999</v>
+      </c>
+      <c r="E224" t="n">
+        <v>57.669998</v>
+      </c>
+      <c r="F224" t="n">
+        <v>57.669998</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2206700</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>57.759998</v>
+      </c>
+      <c r="C225" t="n">
+        <v>57.830002</v>
+      </c>
+      <c r="D225" t="n">
+        <v>57.669998</v>
+      </c>
+      <c r="E225" t="n">
+        <v>57.759998</v>
+      </c>
+      <c r="F225" t="n">
+        <v>57.759998</v>
+      </c>
+      <c r="G225" t="n">
+        <v>3559700</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>57.799999</v>
+      </c>
+      <c r="C226" t="n">
+        <v>57.830002</v>
+      </c>
+      <c r="D226" t="n">
+        <v>57.639999</v>
+      </c>
+      <c r="E226" t="n">
+        <v>57.73</v>
+      </c>
+      <c r="F226" t="n">
+        <v>57.73</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1879400</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>57.57</v>
+      </c>
+      <c r="C227" t="n">
+        <v>57.599998</v>
+      </c>
+      <c r="D227" t="n">
+        <v>57.529999</v>
+      </c>
+      <c r="E227" t="n">
+        <v>57.540001</v>
+      </c>
+      <c r="F227" t="n">
+        <v>57.540001</v>
+      </c>
+      <c r="G227" t="n">
+        <v>819000</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>57.669998</v>
+      </c>
+      <c r="C228" t="n">
+        <v>57.830002</v>
+      </c>
+      <c r="D228" t="n">
+        <v>57.630001</v>
+      </c>
+      <c r="E228" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="F228" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2302000</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>57.669998</v>
+      </c>
+      <c r="C229" t="n">
+        <v>57.805</v>
+      </c>
+      <c r="D229" t="n">
+        <v>57.794998</v>
+      </c>
+      <c r="E229" t="n">
+        <v>57.794998</v>
+      </c>
+      <c r="F229" t="n">
+        <v>57.794998</v>
+      </c>
+      <c r="G229" t="n">
+        <v>36391</v>
       </c>
     </row>
   </sheetData>
